--- a/biology/Zoologie/Gibbon_noir/Gibbon_noir.xlsx
+++ b/biology/Zoologie/Gibbon_noir/Gibbon_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nomascus concolor
-Le Gibbon noir[1] (Nomascus concolor) est une espèce menacée de gibbons, qu'on trouve en Inde, en Asie du Sud-Est insulaire et en Indochine[2]. Ce primate est une espèce en danger critique d'extinction[3] de la famille des Hylobatidae, dont il existe plusieurs sous-espèces.
+Le Gibbon noir (Nomascus concolor) est une espèce menacée de gibbons, qu'on trouve en Inde, en Asie du Sud-Est insulaire et en Indochine. Ce primate est une espèce en danger critique d'extinction de la famille des Hylobatidae, dont il existe plusieurs sous-espèces.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure entre 43 et 54 cm pour un poids allant de 6,9 à 10 kg[4]. Il a une fourrure noire, des joues blanches et une crête de poils sur la tête[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure entre 43 et 54 cm pour un poids allant de 6,9 à 10 kg. Il a une fourrure noire, des joues blanches et une crête de poils sur la tête.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se déplace principalement en se balançant de branches en branches brachiation. Il peut également sauter, marcher et grimper. Il vit en groupe, composé d'un couple monogame et de leurs petits[4], petits jaunes à la naissance.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se déplace principalement en se balançant de branches en branches brachiation. Il peut également sauter, marcher et grimper. Il vit en groupe, composé d'un couple monogame et de leurs petits, petits jaunes à la naissance.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gibbon noir est frugivore et folivore, se nourrissant à parts égales de fruits et de feuilles. Leur alimentation varie néanmoins en fonction des saisons. Ils se nourrissent majoritairement de figues entre août et septembre, de fleurs entre février et avril, de feuilles en mars et de feuilles et bourgeons de décembre à janvier. Il a également été observé se nourrissant d'insectes et d'œufs, mais c'est rare[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gibbon noir est frugivore et folivore, se nourrissant à parts égales de fruits et de feuilles. Leur alimentation varie néanmoins en fonction des saisons. Ils se nourrissent majoritairement de figues entre août et septembre, de fleurs entre février et avril, de feuilles en mars et de feuilles et bourgeons de décembre à janvier. Il a également été observé se nourrissant d'insectes et d'œufs, mais c'est rare.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gibbon noir se trouve dans la province du Yunnan (Chine), au Laos et dans le nord du Vietnam.
 </t>
@@ -636,15 +656,17 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (13 févr. 2011)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (13 févr. 2011) :
 sous-espèce Nomascus concolor concolor
 sous-espèce Nomascus concolor furvogaster
 sous-espèce Nomascus concolor jingdongensis
 sous-espèce Nomascus concolor lu
 sous-espèce Nomascus concolor nasutus
-Selon NCBI  (13 févr. 2011)[7] :
+Selon NCBI  (13 févr. 2011) :
 sous-espèce Nomascus concolor concolor
 sous-espèce Nomascus concolor furvogaster
 sous-espèce Nomascus concolor jingdongensis
